--- a/doc/lang/zh-Hans.xlsx
+++ b/doc/lang/zh-Hans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
   <si>
     <t>key</t>
   </si>
@@ -332,6 +332,14 @@
   </si>
   <si>
     <t>兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map.fightTip_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否进入战斗解锁该战斗区域</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,10 +721,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1209,6 +1220,17 @@
         <v>72</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/lang/zh-Hans.xlsx
+++ b/doc/lang/zh-Hans.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="zh-Hans" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="103">
   <si>
     <t>key</t>
   </si>
@@ -340,6 +340,30 @@
   </si>
   <si>
     <t>是否进入战斗解锁该战斗区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法前进的路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map.tip_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行任务中…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map.tip_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map.tip_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请先解锁前面的关卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,13 +745,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1231,6 +1255,39 @@
         <v>96</v>
       </c>
     </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/lang/zh-Hans.xlsx
+++ b/doc/lang/zh-Hans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
   <si>
     <t>key</t>
   </si>
@@ -88,9 +88,6 @@
     <t>mercenary.life</t>
   </si>
   <si>
-    <t>生命</t>
-  </si>
-  <si>
     <t>mercenary.atk</t>
   </si>
   <si>
@@ -364,6 +361,21 @@
   </si>
   <si>
     <t>请先解锁前面的关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mercenary.lifeMax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,13 +757,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B36" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -817,68 +829,68 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
         <v>81</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>82</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
         <v>84</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" t="s">
         <v>92</v>
-      </c>
-      <c r="C10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -952,340 +964,351 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
         <v>101</v>
       </c>
-      <c r="B48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" t="s">
-        <v>102</v>
+      <c r="C49" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1293,7 +1316,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A29:C38 A12:C26 A1:C5" numberStoredAsText="1"/>
+    <ignoredError sqref="A30:C39 A20:C27 A1:C5 A12:C17 A18" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/doc/lang/zh-Hans.xlsx
+++ b/doc/lang/zh-Hans.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="108">
   <si>
     <t>key</t>
   </si>
@@ -376,6 +376,14 @@
   </si>
   <si>
     <t>血量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无装备可合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip.tip_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,13 +765,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B39" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1311,6 +1319,17 @@
         <v>101</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
